--- a/misc/test.xlsx
+++ b/misc/test.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>time</t>
   </si>
@@ -46,6 +46,132 @@
   </si>
   <si>
     <t>LE12</t>
+  </si>
+  <si>
+    <t>time S11 S22 S12 LE11 LE22 LE12</t>
+  </si>
+  <si>
+    <t>0.0 0.0 0.0 0.0 0.0 0.0 0.0</t>
+  </si>
+  <si>
+    <t>0.5 99515.2661761 1383327.78074 -130851.663627 9.98007669081e-05 -0.00023915746536 4.03555465655e-05</t>
+  </si>
+  <si>
+    <t>1.0 44052.0896195 262113.02062 -16948.4055534 4.63219422022e-05 -0.000196919116235 -1.53384612342e-05</t>
+  </si>
+  <si>
+    <t>1.5 47550.6737814 158241.954724 -82446.6169834 5.71850491156e-05 -0.000243527733709 -1.43485135992e-05</t>
+  </si>
+  <si>
+    <t>2.0 -123988.445728 69223.6055907 -151187.296966 7.68590379868e-05 -0.000255475448934 3.29954608329e-05</t>
+  </si>
+  <si>
+    <t>2.5 -115542.231935 71800.4312408 -145410.592882 7.42640208021e-05 -0.000265795046657 7.13502662157e-05</t>
+  </si>
+  <si>
+    <t>3.0 -72379.0981779 89315.551607 -127879.668426 6.91643214488e-05 -0.000280441157996 0.000105105489152</t>
+  </si>
+  <si>
+    <t>3.5 -36262.9974262 174441.952823 -118178.538344 7.87969733635e-05 -0.000323921268044 0.000121678967449</t>
+  </si>
+  <si>
+    <t>4.0 -126266.794723 73480.9953954 -140130.890473 7.0615245287e-05 -0.000296422673414 0.000191960054732</t>
+  </si>
+  <si>
+    <t>4.5 -99712.0490074 38456.7178137 -131259.542243 5.96677426951e-05 -0.000291252729727 0.000240256538902</t>
+  </si>
+  <si>
+    <t>5.0 -81809.6969767 38468.4793356 -127544.751084 5.63739821016e-05 -0.000300921754395 0.000281116634849</t>
+  </si>
+  <si>
+    <t>5.5 -76156.7932643 36158.7602013 -125032.031893 5.50356615874e-05 -0.000312450614499 0.000321118531916</t>
+  </si>
+  <si>
+    <t>6.0 -75767.3548143 39192.3407966 -124395.351971 5.52343752756e-05 -0.000326179474394 0.000360722554003</t>
+  </si>
+  <si>
+    <t>6.5 -72705.2308479 42035.8838751 -124876.076402 5.50419659759e-05 -0.000339049630871 0.000401098658852</t>
+  </si>
+  <si>
+    <t>7.0 -72592.8515769 47346.612378 -123586.043159 5.52221245669e-05 -0.000352848365396 0.000441449021552</t>
+  </si>
+  <si>
+    <t>7.5 -74593.6530822 49360.5719527 -125026.810357 5.61108552024e-05 -0.000367176566252 0.000481983877907</t>
+  </si>
+  <si>
+    <t>8.0 -72001.2417377 44218.7046788 -122669.150408 5.49169947814e-05 -0.000378438089358 0.000523990910118</t>
+  </si>
+  <si>
+    <t>8.5 -73096.8184981 47845.8550778 -122122.091628 5.54381869318e-05 -0.000392595467677 0.000565428808483</t>
+  </si>
+  <si>
+    <t>9.0 -74330.3489005 49133.441276 -124098.158192 5.61264741514e-05 -0.000406258392531 0.000607371855879</t>
+  </si>
+  <si>
+    <t>9.5 -77510.0473644 54456.639891 -123462.387452 5.68955882378e-05 -0.000420653370572 0.000649491438596</t>
+  </si>
+  <si>
+    <t>10.0 -76574.2369829 36896.1681438 -110565.19299 5.35910246192e-05 -0.000427072882795 0.000688383270322</t>
+  </si>
+  <si>
+    <t>10.5 -88241.1461632 -444282.832747 -74415.5283067 7.12439486153e-06 -0.000318409396599 0.000686241671058</t>
+  </si>
+  <si>
+    <t>11.0 44643.0627829 -387559.224196 -23574.4584293 -2.52744601462e-05 -0.000280081720801 0.000655977848844</t>
+  </si>
+  <si>
+    <t>11.5 140020.852448 -388261.585289 5093.54952229 -4.11796604122e-05 -0.000254256769313 0.000613439675821</t>
+  </si>
+  <si>
+    <t>12.0 121296.138687 -452348.239013 995.488739524 -5.11194340805e-05 -0.00022739613365 0.000576597938447</t>
+  </si>
+  <si>
+    <t>12.5 150886.66046 -405831.89821 12969.0580216 -5.25362716782e-05 -0.000216444708984 0.000533222287221</t>
+  </si>
+  <si>
+    <t>13.0 159795.593336 -379262.81436 14438.9873317 -5.13643637488e-05 -0.000206495756521 0.000490820329842</t>
+  </si>
+  <si>
+    <t>13.5 166162.32895 -403523.46983 16267.9176669 -5.65834152389e-05 -0.000186575091652 0.000453720906881</t>
+  </si>
+  <si>
+    <t>14.0 169454.09063 -374437.782965 17438.5874766 -5.2896700041e-05 -0.000179572255213 0.000410400047582</t>
+  </si>
+  <si>
+    <t>14.5 157101.811337 -378027.153875 15056.6059097 -5.18640428957e-05 -0.000166346896391 0.000371710876745</t>
+  </si>
+  <si>
+    <t>15.0 171066.638521 -376755.702293 16515.9703371 -5.41069321624e-05 -0.000152233773487 0.000332732397167</t>
+  </si>
+  <si>
+    <t>15.5 168665.796806 -369672.690733 14269.7832712 -5.38635349848e-05 -0.000139483092615 0.000294978590445</t>
+  </si>
+  <si>
+    <t>16.0 161141.250479 -366203.330244 5150.86955199 -5.23022074856e-05 -0.000127018498959 0.000258367262476</t>
+  </si>
+  <si>
+    <t>16.5 171396.815843 -352861.013355 6779.91742612 -5.34737507046e-05 -0.000113497447711 0.000221553148436</t>
+  </si>
+  <si>
+    <t>17.0 156719.732382 -359548.962219 -2728.57154171 -5.18474020987e-05 -0.000100430091805 0.000186319109756</t>
+  </si>
+  <si>
+    <t>17.5 164166.373129 -346067.593822 -7681.07754443 -5.15691508285e-05 -8.84756932885e-05 0.000149942062643</t>
+  </si>
+  <si>
+    <t>18.0 152916.442766 -364184.154689 -20185.2895899 -5.24464122046e-05 -7.29082373996e-05 0.000117362114269</t>
+  </si>
+  <si>
+    <t>18.5 138301.820522 -362995.698323 -30123.8348033 -5.28437016118e-05 -5.57373886717e-05 8.611520501e-05</t>
+  </si>
+  <si>
+    <t>19.0 122702.901073 -449515.891108 -23266.7102001 -7.10416244084e-05 -1.11895000375e-05 6.98067449293e-05</t>
+  </si>
+  <si>
+    <t>19.5 135999.792124 -423314.849336 -9055.39892593 -7.38014690756e-05 5.35926564238e-06 3.65329472052e-05</t>
+  </si>
+  <si>
+    <t>20.0 23947.4429985 -551274.530151 17964.4615258 -6.98901899001e-05 3.30749467597e-05 -1.21664719925e-06</t>
   </si>
 </sst>
 </file>
@@ -275,46 +401,46 @@
                   <c:v>-7.5282664038199996E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-7.0246197406800001E-3</c:v>
+                  <c:v>-7.0246150717099996E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-6.5212365657600002E-3</c:v>
+                  <c:v>-6.5212170593400001E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-6.0181002767599997E-3</c:v>
+                  <c:v>-6.0180723667100002E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-5.5152085375400001E-3</c:v>
+                  <c:v>-5.5151805281599998E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-5.0125696523900002E-3</c:v>
+                  <c:v>-5.01254200935E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4.5101834685000002E-3</c:v>
+                  <c:v>-4.5101554133000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-4.0080493673599997E-3</c:v>
+                  <c:v>-4.0080216713200001E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.5061670289700001E-3</c:v>
+                  <c:v>-3.5061393864500002E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3.0045367733499998E-3</c:v>
+                  <c:v>-3.0045090243199998E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.5031578984E-3</c:v>
+                  <c:v>-2.5031301192899999E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.00203028592E-3</c:v>
+                  <c:v>-2.0020026713599998E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.50115378488E-3</c:v>
+                  <c:v>-1.5011260984500001E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.0005279451300001E-3</c:v>
+                  <c:v>-1.0005004005499999E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-5.0015265294900001E-4</c:v>
+                  <c:v>-5.0012505380400002E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -332,124 +458,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7758577</c:v>
+                  <c:v>-6379358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15521036</c:v>
+                  <c:v>-10293323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-23287382</c:v>
+                  <c:v>-12199184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-28180198</c:v>
+                  <c:v>-13333378</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-29141318</c:v>
+                  <c:v>-14763506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-29752182</c:v>
+                  <c:v>-16094920</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-30164322</c:v>
+                  <c:v>-17387360</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-30460458</c:v>
+                  <c:v>-18584100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-30670882</c:v>
+                  <c:v>-19702050</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-30819050</c:v>
+                  <c:v>-20737556</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-30924068</c:v>
+                  <c:v>-21695436</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-30999194</c:v>
+                  <c:v>-22578550</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-31053416</c:v>
+                  <c:v>-23305592</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-31092886</c:v>
+                  <c:v>-23470590</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-31121852</c:v>
+                  <c:v>-23594534</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-31143262</c:v>
+                  <c:v>-23695326</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-31159182</c:v>
+                  <c:v>-23774816</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-31171082</c:v>
+                  <c:v>-23837408</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-31180014</c:v>
+                  <c:v>-23886810</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-31186734</c:v>
+                  <c:v>-23925876</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-23361560</c:v>
+                  <c:v>-20708818</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-15532503</c:v>
+                  <c:v>-17490164</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7707396.5</c:v>
+                  <c:v>-14273134</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33907.5</c:v>
+                  <c:v>-11057725</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49947.0039063</c:v>
+                  <c:v>-7843937</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>-4631767</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>-1421214.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>23290.625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>25038.3027344</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>25523.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>25275.1308594</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>25011.8574219</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>25012.2558594</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>25029.8652344</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>25039.4882813</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>25048.7949219</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>25061.90625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>25013.7949219</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>25037.8867188</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>50024.5976563</c:v>
+                  <c:v>25046.078125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,124 +630,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.8317161674500003E-4</c:v>
+                  <c:v>-5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.6006056736800001E-4</c:v>
+                  <c:v>-1E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.4410652140199999E-3</c:v>
+                  <c:v>-1.5E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.9363488449100001E-3</c:v>
+                  <c:v>-2E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.3947635041300002E-3</c:v>
+                  <c:v>-2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.8239030802499998E-3</c:v>
+                  <c:v>-3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.2790303839800002E-3</c:v>
+                  <c:v>-3.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.70697998086E-3</c:v>
+                  <c:v>-4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.1618433824200003E-3</c:v>
+                  <c:v>-4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.5939537269499998E-3</c:v>
+                  <c:v>-5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.0531658318700001E-3</c:v>
+                  <c:v>-5.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.4979879169200002E-3</c:v>
+                  <c:v>-6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.9608697459600001E-3</c:v>
+                  <c:v>-6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.3551872782600001E-3</c:v>
+                  <c:v>-7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.8352166849500002E-3</c:v>
+                  <c:v>-7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-7.3125458442E-3</c:v>
+                  <c:v>-8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.7743942798600002E-3</c:v>
+                  <c:v>-8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8.2970584511899998E-3</c:v>
+                  <c:v>-8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8.7049766259800002E-3</c:v>
+                  <c:v>-9.4999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-9.0623980201400001E-3</c:v>
+                  <c:v>-0.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8.7782598373300005E-3</c:v>
+                  <c:v>-9.4999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-8.3470913429099999E-3</c:v>
+                  <c:v>-8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7.8800448884699999E-3</c:v>
+                  <c:v>-8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7.4088407322199998E-3</c:v>
+                  <c:v>-8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-6.9822801737500001E-3</c:v>
+                  <c:v>-7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-6.5061312799700004E-3</c:v>
+                  <c:v>-7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-5.9658737553899997E-3</c:v>
+                  <c:v>-6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-5.4978115546500004E-3</c:v>
+                  <c:v>-6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-5.0193084837199999E-3</c:v>
+                  <c:v>-5.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4.6060951242100001E-3</c:v>
+                  <c:v>-5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4.1941270396300004E-3</c:v>
+                  <c:v>-4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-3.77323876709E-3</c:v>
+                  <c:v>-3.9999999999999897E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.4054820224100001E-3</c:v>
+                  <c:v>-3.4999999999999901E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3.02730137513E-3</c:v>
+                  <c:v>-2.9999999999999901E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.6006637360200002E-3</c:v>
+                  <c:v>-2.4999999999999901E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.0993748831299999E-3</c:v>
+                  <c:v>-1.9999999999999901E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.6144628390300001E-3</c:v>
+                  <c:v>-1.4999999999999901E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.1296867310600001E-3</c:v>
+                  <c:v>-9.9999999999999005E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-6.2996895868999995E-4</c:v>
+                  <c:v>-4.9999999999999004E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.45501485962E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,11 +894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1007408240"/>
-        <c:axId val="1007423472"/>
+        <c:axId val="-938541600"/>
+        <c:axId val="-938544320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1007408240"/>
+        <c:axId val="-938541600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,12 +955,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1007423472"/>
+        <c:crossAx val="-938544320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1007423472"/>
+        <c:axId val="-938544320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,7 +1017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1007408240"/>
+        <c:crossAx val="-938541600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1039,124 +1165,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.8317161674500003E-4</c:v>
+                  <c:v>-5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.6006056736800001E-4</c:v>
+                  <c:v>-1E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.4410652140199999E-3</c:v>
+                  <c:v>-1.5E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.9363488449100001E-3</c:v>
+                  <c:v>-2E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.3947635041300002E-3</c:v>
+                  <c:v>-2.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.8239030802499998E-3</c:v>
+                  <c:v>-3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.2790303839800002E-3</c:v>
+                  <c:v>-3.5000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.70697998086E-3</c:v>
+                  <c:v>-4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.1618433824200003E-3</c:v>
+                  <c:v>-4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.5939537269499998E-3</c:v>
+                  <c:v>-5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.0531658318700001E-3</c:v>
+                  <c:v>-5.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.4979879169200002E-3</c:v>
+                  <c:v>-6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.9608697459600001E-3</c:v>
+                  <c:v>-6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.3551872782600001E-3</c:v>
+                  <c:v>-7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.8352166849500002E-3</c:v>
+                  <c:v>-7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-7.3125458442E-3</c:v>
+                  <c:v>-8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.7743942798600002E-3</c:v>
+                  <c:v>-8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8.2970584511899998E-3</c:v>
+                  <c:v>-8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8.7049766259800002E-3</c:v>
+                  <c:v>-9.4999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-9.0623980201400001E-3</c:v>
+                  <c:v>-0.01</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8.7782598373300005E-3</c:v>
+                  <c:v>-9.4999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-8.3470913429099999E-3</c:v>
+                  <c:v>-8.9999999999999993E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-7.8800448884699999E-3</c:v>
+                  <c:v>-8.5000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7.4088407322199998E-3</c:v>
+                  <c:v>-8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-6.9822801737500001E-3</c:v>
+                  <c:v>-7.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-6.5061312799700004E-3</c:v>
+                  <c:v>-7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-5.9658737553899997E-3</c:v>
+                  <c:v>-6.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-5.4978115546500004E-3</c:v>
+                  <c:v>-6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-5.0193084837199999E-3</c:v>
+                  <c:v>-5.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4.6060951242100001E-3</c:v>
+                  <c:v>-5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-4.1941270396300004E-3</c:v>
+                  <c:v>-4.4999999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-3.77323876709E-3</c:v>
+                  <c:v>-3.9999999999999897E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.4054820224100001E-3</c:v>
+                  <c:v>-3.4999999999999901E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3.02730137513E-3</c:v>
+                  <c:v>-2.9999999999999901E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.6006637360200002E-3</c:v>
+                  <c:v>-2.4999999999999901E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.0993748831299999E-3</c:v>
+                  <c:v>-1.9999999999999901E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.6144628390300001E-3</c:v>
+                  <c:v>-1.4999999999999901E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.1296867310600001E-3</c:v>
+                  <c:v>-9.9999999999999005E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-6.2996895868999995E-4</c:v>
+                  <c:v>-4.9999999999999004E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1.45501485962E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,11 +1429,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1007421296"/>
-        <c:axId val="1007415856"/>
+        <c:axId val="-938560640"/>
+        <c:axId val="-938540512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1007421296"/>
+        <c:axId val="-938560640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,12 +1490,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1007415856"/>
+        <c:crossAx val="-938540512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1007415856"/>
+        <c:axId val="-938540512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1007421296"/>
+        <c:crossAx val="-938560640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2591,16 +2717,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2922,7 +3048,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2977,16 +3105,16 @@
         <v>0.5</v>
       </c>
       <c r="B3" s="1">
-        <v>-1.5234341844899999E-5</v>
+        <v>-2.3034866899299999E-5</v>
       </c>
       <c r="C3">
-        <v>-7758577</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>-6379358</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.5849062313999995E-11</v>
       </c>
       <c r="E3">
-        <v>1.2527593935399999E-4</v>
+        <v>1.56349182362E-4</v>
       </c>
       <c r="F3">
         <v>-5.0012505380400002E-4</v>
@@ -3000,16 +3128,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>4.5746564865099999E-5</v>
+        <v>-12448.523460500001</v>
       </c>
       <c r="C4">
-        <v>-15521036</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>-10293323</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-4.8523837725699997E-11</v>
       </c>
       <c r="E4">
-        <v>2.5061459746199998E-4</v>
+        <v>4.3331974302400001E-4</v>
       </c>
       <c r="F4">
         <v>-1.0005004005499999E-3</v>
@@ -3023,16 +3151,16 @@
         <v>1.5</v>
       </c>
       <c r="B5" s="1">
-        <v>4.5838765800000003E-5</v>
+        <v>-12275.9257813</v>
       </c>
       <c r="C5">
-        <v>-23287382</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>-12199184</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-3.18774971697E-11</v>
       </c>
       <c r="E5">
-        <v>3.7601595977300001E-4</v>
+        <v>8.1082229735299997E-4</v>
       </c>
       <c r="F5">
         <v>-1.5011260984500001E-3</v>
@@ -3046,16 +3174,16 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>-21.497079786800001</v>
+        <v>-929.4453125</v>
       </c>
       <c r="C6">
-        <v>-28180198</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>-13333378</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.3712487048600001E-10</v>
       </c>
       <c r="E6">
-        <v>6.1016710242299999E-4</v>
+        <v>1.22584449127E-3</v>
       </c>
       <c r="F6">
         <v>-2.0020026713599998E-3</v>
@@ -3069,16 +3197,16 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>-285.227731705</v>
+        <v>-401.549072266</v>
       </c>
       <c r="C7">
-        <v>-29141318</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>-14763506</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-6.3137425843099995E-11</v>
       </c>
       <c r="E7">
-        <v>1.01091631223E-3</v>
+        <v>1.6110239084800001E-3</v>
       </c>
       <c r="F7">
         <v>-2.5031301192899999E-3</v>
@@ -3092,16 +3220,16 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>-196.55516052199999</v>
+        <v>-27.954010009800001</v>
       </c>
       <c r="C8">
-        <v>-29752182</v>
+        <v>-16094920</v>
       </c>
       <c r="D8" s="1">
-        <v>-2.4519375418900001E-10</v>
+        <v>-4.6938977010799999E-11</v>
       </c>
       <c r="E8">
-        <v>1.4417672064200001E-3</v>
+        <v>1.98697508313E-3</v>
       </c>
       <c r="F8">
         <v>-3.0045090243199998E-3</v>
@@ -3115,16 +3243,16 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>-82.051795959499998</v>
+        <v>-54.562934875499998</v>
       </c>
       <c r="C9">
-        <v>-30164322</v>
+        <v>-17387360</v>
       </c>
       <c r="D9" s="1">
-        <v>6.5459498932399997E-11</v>
+        <v>4.0898579661799998E-11</v>
       </c>
       <c r="E9">
-        <v>1.8945263000200001E-3</v>
+        <v>2.3486691061399998E-3</v>
       </c>
       <c r="F9">
         <v>-3.5061393864500002E-3</v>
@@ -3138,16 +3266,16 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>-38.096412658699997</v>
+        <v>-26.486637115499999</v>
       </c>
       <c r="C10">
-        <v>-30460458</v>
+        <v>-18584100</v>
       </c>
       <c r="D10" s="1">
-        <v>4.7240402561999998E-11</v>
+        <v>1.0744150708E-10</v>
       </c>
       <c r="E10">
-        <v>2.3634657263799999E-3</v>
+        <v>2.69895675592E-3</v>
       </c>
       <c r="F10">
         <v>-4.0080216713200001E-3</v>
@@ -3161,16 +3289,16 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>-21.677814483599999</v>
+        <v>-26.8053016663</v>
       </c>
       <c r="C11">
-        <v>-30670882</v>
+        <v>-19702050</v>
       </c>
       <c r="D11" s="1">
-        <v>3.3958221651300002E-11</v>
+        <v>1.5778836570699999E-11</v>
       </c>
       <c r="E11">
-        <v>2.8452954720700001E-3</v>
+        <v>3.0366485007099998E-3</v>
       </c>
       <c r="F11">
         <v>-4.5101554133000002E-3</v>
@@ -3184,16 +3312,16 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>-12.413918495200001</v>
+        <v>-21.0427856445</v>
       </c>
       <c r="C12">
-        <v>-30819050</v>
+        <v>-20737556</v>
       </c>
       <c r="D12" s="1">
-        <v>2.4334837964200001E-11</v>
+        <v>-5.6149319568900002E-11</v>
       </c>
       <c r="E12">
-        <v>3.3372682519299999E-3</v>
+        <v>3.3621327020200002E-3</v>
       </c>
       <c r="F12">
         <v>-5.01254200935E-3</v>
@@ -3207,16 +3335,16 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>-7.0271725654599999</v>
+        <v>-17.780685424800001</v>
       </c>
       <c r="C13">
-        <v>-30924068</v>
+        <v>-21695436</v>
       </c>
       <c r="D13" s="1">
-        <v>1.7397517454399999E-11</v>
+        <v>-4.7872886210799997E-11</v>
       </c>
       <c r="E13">
-        <v>3.8370746187899999E-3</v>
+        <v>3.6755418404900001E-3</v>
       </c>
       <c r="F13">
         <v>-5.5151805281599998E-3</v>
@@ -3230,16 +3358,16 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>-4.04665517807</v>
+        <v>-14.506463050800001</v>
       </c>
       <c r="C14">
-        <v>-30999194</v>
+        <v>-22578550</v>
       </c>
       <c r="D14" s="1">
-        <v>1.2415548623900001E-11</v>
+        <v>2.2019629175599999E-11</v>
       </c>
       <c r="E14">
-        <v>4.3429178185799997E-3</v>
+        <v>3.9773229509600001E-3</v>
       </c>
       <c r="F14">
         <v>-6.0180723667100002E-3</v>
@@ -3253,16 +3381,16 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>-2.3832836151099999</v>
+        <v>-7.9221410751299999</v>
       </c>
       <c r="C15">
-        <v>-31053416</v>
+        <v>-23305592</v>
       </c>
       <c r="D15" s="1">
-        <v>8.8479969878599994E-12</v>
+        <v>7.9090282934000006E-11</v>
       </c>
       <c r="E15">
-        <v>4.8534227535099997E-3</v>
+        <v>4.3031522072899996E-3</v>
       </c>
       <c r="F15">
         <v>-6.5212170593400001E-3</v>
@@ -3276,16 +3404,16 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>-1.4361293315899999</v>
+        <v>-12.321342468299999</v>
       </c>
       <c r="C16">
-        <v>-31092886</v>
+        <v>-23470590</v>
       </c>
       <c r="D16" s="1">
-        <v>6.29881346734E-12</v>
+        <v>-4.2972424230100002E-11</v>
       </c>
       <c r="E16">
-        <v>5.3675379604100001E-3</v>
+        <v>4.8458194360100001E-3</v>
       </c>
       <c r="F16">
         <v>-7.0246150717099996E-3</v>
@@ -3299,16 +3427,16 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>-0.88736790418599998</v>
+        <v>-1.7063913345299999</v>
       </c>
       <c r="C17">
-        <v>-31121852</v>
+        <v>-23594534</v>
       </c>
       <c r="D17" s="1">
-        <v>4.48030111275E-12</v>
+        <v>7.2633836445400005E-11</v>
       </c>
       <c r="E17">
-        <v>5.88446343318E-3</v>
+        <v>5.4009915329500001E-3</v>
       </c>
       <c r="F17">
         <v>-7.5282664038199996E-3</v>
@@ -3322,16 +3450,16 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>-0.56375545263299998</v>
+        <v>-0.93171542882900005</v>
       </c>
       <c r="C18">
-        <v>-31143262</v>
+        <v>-23695326</v>
       </c>
       <c r="D18" s="1">
-        <v>3.18467344509E-12</v>
+        <v>-4.80917874968E-11</v>
       </c>
       <c r="E18">
-        <v>6.4035896211899999E-3</v>
+        <v>5.9656519442800003E-3</v>
       </c>
       <c r="F18">
         <v>-8.0321719870000002E-3</v>
@@ -3345,16 +3473,16 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>-0.36931014061</v>
+        <v>-0.72417205572099996</v>
       </c>
       <c r="C19">
-        <v>-31159182</v>
+        <v>-23774816</v>
       </c>
       <c r="D19" s="1">
-        <v>2.2624946621099999E-12</v>
+        <v>6.8179920042999998E-11</v>
       </c>
       <c r="E19">
-        <v>6.9244550541E-3</v>
+        <v>6.5388828515999999E-3</v>
       </c>
       <c r="F19">
         <v>-8.53633135557E-3</v>
@@ -3368,16 +3496,16 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>-0.250166893005</v>
+        <v>-0.51546704769100005</v>
       </c>
       <c r="C20">
-        <v>-31171082</v>
+        <v>-23837408</v>
       </c>
       <c r="D20" s="1">
-        <v>1.6066338797599999E-12</v>
+        <v>5.5952520394700001E-11</v>
       </c>
       <c r="E20">
-        <v>7.4467067606700001E-3</v>
+        <v>7.11947306991E-3</v>
       </c>
       <c r="F20">
         <v>-9.0407449752099994E-3</v>
@@ -3391,16 +3519,16 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>-0.17566707730299999</v>
+        <v>-0.36635488271700001</v>
       </c>
       <c r="C21">
-        <v>-31180014</v>
+        <v>-23886810</v>
       </c>
       <c r="D21" s="1">
-        <v>1.1404715062999999E-12</v>
+        <v>4.5864177039599997E-11</v>
       </c>
       <c r="E21">
-        <v>7.9700788482999999E-3</v>
+        <v>7.7063445933200003E-3</v>
       </c>
       <c r="F21">
         <v>-9.5454128459099997E-3</v>
@@ -3414,16 +3542,16 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>-0.124242827296</v>
+        <v>-0.258620530367</v>
       </c>
       <c r="C22">
-        <v>-31186734</v>
+        <v>-23925876</v>
       </c>
       <c r="D22" s="1">
-        <v>8.0954302506299995E-13</v>
+        <v>3.7564302363100002E-11</v>
       </c>
       <c r="E22">
-        <v>8.4938406944300004E-3</v>
+        <v>8.2979816943399998E-3</v>
       </c>
       <c r="F22">
         <v>-1.0049831122200001E-2</v>
@@ -3437,16 +3565,16 @@
         <v>10.5</v>
       </c>
       <c r="B23" s="1">
-        <v>-5.8032572269400002E-5</v>
+        <v>-3.9339065551800002E-5</v>
       </c>
       <c r="C23">
-        <v>-23361560</v>
+        <v>-20708818</v>
       </c>
       <c r="D23" s="1">
-        <v>8.0954302506299995E-13</v>
+        <v>-2.7960505438700001E-11</v>
       </c>
       <c r="E23">
-        <v>8.3674900233700004E-3</v>
+        <v>8.14029108733E-3</v>
       </c>
       <c r="F23">
         <v>-9.5454128459099997E-3</v>
@@ -3460,16 +3588,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="1">
-        <v>-7.2099734097700002E-5</v>
+        <v>-2.7185305953E-5</v>
       </c>
       <c r="C24">
-        <v>-15532503</v>
+        <v>-17490164</v>
       </c>
       <c r="D24" s="1">
-        <v>8.0954302506299995E-13</v>
+        <v>-2.7960503703999999E-11</v>
       </c>
       <c r="E24">
-        <v>8.2410760223899995E-3</v>
+        <v>7.9825213179000008E-3</v>
       </c>
       <c r="F24">
         <v>-9.0407449752099994E-3</v>
@@ -3483,16 +3611,16 @@
         <v>11.5</v>
       </c>
       <c r="B25" s="1">
-        <v>4.7360546886899997E-5</v>
+        <v>3.39839607477E-5</v>
       </c>
       <c r="C25">
-        <v>-7707396.5</v>
+        <v>-14273134</v>
       </c>
       <c r="D25" s="1">
-        <v>8.0954302506299995E-13</v>
+        <v>4.8455111451E-12</v>
       </c>
       <c r="E25">
-        <v>8.1147253513299995E-3</v>
+        <v>7.8248316422099996E-3</v>
       </c>
       <c r="F25">
         <v>-8.53633135557E-3</v>
@@ -3505,17 +3633,17 @@
       <c r="A26">
         <v>12</v>
       </c>
-      <c r="B26">
-        <v>-638.75282129200002</v>
+      <c r="B26" s="1">
+        <v>3.3915042877200003E-5</v>
       </c>
       <c r="C26">
-        <v>33907.5</v>
+        <v>-11057725</v>
       </c>
       <c r="D26" s="1">
-        <v>7.8414071026300003E-13</v>
+        <v>-2.7982303540299999E-11</v>
       </c>
       <c r="E26">
-        <v>7.9947346821400006E-3</v>
+        <v>7.6672211289400003E-3</v>
       </c>
       <c r="F26">
         <v>-8.0321719870000002E-3</v>
@@ -3528,17 +3656,17 @@
       <c r="A27">
         <v>12.5</v>
       </c>
-      <c r="B27">
-        <v>-1848.94018555</v>
+      <c r="B27" s="1">
+        <v>3.3846590667999999E-5</v>
       </c>
       <c r="C27">
-        <v>49947.0039063</v>
+        <v>-7843937</v>
       </c>
       <c r="D27" s="1">
-        <v>5.7872380932600001E-13</v>
+        <v>3.7716900783100003E-11</v>
       </c>
       <c r="E27">
-        <v>7.8892875462800004E-3</v>
+        <v>7.5096897780900004E-3</v>
       </c>
       <c r="F27">
         <v>-7.5282664038199996E-3</v>
@@ -3551,20 +3679,20 @@
       <c r="A28">
         <v>13</v>
       </c>
-      <c r="B28">
-        <v>8.0179229942499999E-2</v>
+      <c r="B28" s="1">
+        <v>3.3779069781299997E-5</v>
       </c>
       <c r="C28">
-        <v>50024.5976563</v>
+        <v>-4631767</v>
       </c>
       <c r="D28" s="1">
-        <v>-6.3285777896100002E-15</v>
+        <v>4.8455198187200004E-12</v>
       </c>
       <c r="E28">
-        <v>7.4094641060700002E-3</v>
+        <v>7.35223805532E-3</v>
       </c>
       <c r="F28">
-        <v>-7.0246197406800001E-3</v>
+        <v>-7.0246150717099996E-3</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3574,20 +3702,20 @@
       <c r="A29">
         <v>13.5</v>
       </c>
-      <c r="B29">
-        <v>0.15822858386999999</v>
+      <c r="B29" s="1">
+        <v>3.37101519108E-5</v>
       </c>
       <c r="C29">
-        <v>50024.5976563</v>
+        <v>-1421214.5</v>
       </c>
       <c r="D29" s="1">
-        <v>-7.4964243798200001E-19</v>
+        <v>4.8455211197599998E-12</v>
       </c>
       <c r="E29">
-        <v>6.9265885461299997E-3</v>
+        <v>7.19486596063E-3</v>
       </c>
       <c r="F29">
-        <v>-6.5212365657600002E-3</v>
+        <v>-6.5212170593400001E-3</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3597,20 +3725,20 @@
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30">
-        <v>8.4833303380000002E-2</v>
+      <c r="B30" s="1">
+        <v>-2532.2384916800002</v>
       </c>
       <c r="C30">
-        <v>50024.5976563</v>
+        <v>23290.625</v>
       </c>
       <c r="D30" s="1">
-        <v>-3.05347980342E-21</v>
+        <v>1.1144756992299999E-12</v>
       </c>
       <c r="E30">
-        <v>6.4439505498400003E-3</v>
+        <v>7.3824003338799999E-3</v>
       </c>
       <c r="F30">
-        <v>-6.0181002767599997E-3</v>
+        <v>-6.0180723667100002E-3</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3620,20 +3748,20 @@
       <c r="A31">
         <v>14.5</v>
       </c>
-      <c r="B31">
-        <v>-5.7696382657099997E-2</v>
+      <c r="B31" s="1">
+        <v>24677.1052246</v>
       </c>
       <c r="C31">
-        <v>50024.5976563</v>
+        <v>25038.3027344</v>
       </c>
       <c r="D31" s="1">
-        <v>-4.49969131423E-13</v>
+        <v>3.5009354356499998E-13</v>
       </c>
       <c r="E31">
-        <v>5.9615468732900001E-3</v>
+        <v>7.17027718201E-3</v>
       </c>
       <c r="F31">
-        <v>-5.5152085375400001E-3</v>
+        <v>-5.5151805281599998E-3</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3644,19 +3772,19 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>-9.8486111864100001E-2</v>
+        <v>-6656.265625</v>
       </c>
       <c r="C32">
-        <v>50024.5976563</v>
+        <v>25523.5</v>
       </c>
       <c r="D32" s="1">
-        <v>-1.14797935359E-12</v>
+        <v>-7.6571750350999994E-11</v>
       </c>
       <c r="E32">
-        <v>5.4793856534399998E-3</v>
+        <v>6.7560463212399998E-3</v>
       </c>
       <c r="F32">
-        <v>-5.0125696523900002E-3</v>
+        <v>-5.01254200935E-3</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3667,19 +3795,19 @@
         <v>15.5</v>
       </c>
       <c r="B33">
-        <v>-9.77101947922E-2</v>
+        <v>-2034.6684570299999</v>
       </c>
       <c r="C33">
-        <v>50024.5976563</v>
+        <v>25275.1308594</v>
       </c>
       <c r="D33" s="1">
-        <v>-4.6543728230399999E-13</v>
+        <v>-2.0267718059400001E-11</v>
       </c>
       <c r="E33">
-        <v>4.9974667302900002E-3</v>
+        <v>6.3475156202899997E-3</v>
       </c>
       <c r="F33">
-        <v>-4.5101834685000002E-3</v>
+        <v>-4.5101554133000002E-3</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3690,19 +3818,19 @@
         <v>16</v>
       </c>
       <c r="B34">
-        <v>-9.6939531675200002E-2</v>
+        <v>-0.99548339843800004</v>
       </c>
       <c r="C34">
-        <v>50024.5976563</v>
+        <v>25011.8574219</v>
       </c>
       <c r="D34" s="1">
-        <v>-1.8996042644999998E-15</v>
+        <v>2.6838984160099999E-11</v>
       </c>
       <c r="E34">
-        <v>4.5157898053500003E-3</v>
+        <v>5.9388764202599996E-3</v>
       </c>
       <c r="F34">
-        <v>-4.0080493673599997E-3</v>
+        <v>-4.0080216713200001E-3</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3713,19 +3841,19 @@
         <v>16.5</v>
       </c>
       <c r="B35">
-        <v>-9.6178026393099997E-2</v>
+        <v>-1.15407621861</v>
       </c>
       <c r="C35">
-        <v>50024.5976563</v>
+        <v>25012.2558594</v>
       </c>
       <c r="D35" s="1">
-        <v>-7.7567939286000008E-18</v>
+        <v>1.31287116595E-11</v>
       </c>
       <c r="E35">
-        <v>4.03435423862E-3</v>
+        <v>5.5301305837900001E-3</v>
       </c>
       <c r="F35">
-        <v>-3.5061670289700001E-3</v>
+        <v>-3.5061393864500002E-3</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3736,19 +3864,19 @@
         <v>17</v>
       </c>
       <c r="B36">
-        <v>-9.5418701800599998E-2</v>
+        <v>-51.6315580606</v>
       </c>
       <c r="C36">
-        <v>50024.5976563</v>
+        <v>25029.8652344</v>
       </c>
       <c r="D36" s="1">
-        <v>-4.5109557909900001E-13</v>
+        <v>6.7725412951400002E-12</v>
       </c>
       <c r="E36">
-        <v>3.5531607465100002E-3</v>
+        <v>5.1216161809899997E-3</v>
       </c>
       <c r="F36">
-        <v>-3.0045367733499998E-3</v>
+        <v>-3.0045090243199998E-3</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -3759,19 +3887,19 @@
         <v>17.5</v>
       </c>
       <c r="B37">
-        <v>-9.4661535431099994E-2</v>
+        <v>-61.7847595215</v>
       </c>
       <c r="C37">
-        <v>50024.5976563</v>
+        <v>25039.4882813</v>
       </c>
       <c r="D37" s="1">
-        <v>-4.7387617541900001E-13</v>
+        <v>1.54036505773E-12</v>
       </c>
       <c r="E37">
-        <v>3.0722082341200002E-3</v>
+        <v>4.7133630141600004E-3</v>
       </c>
       <c r="F37">
-        <v>-2.5031578984E-3</v>
+        <v>-2.5031301192899999E-3</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3782,19 +3910,19 @@
         <v>18</v>
       </c>
       <c r="B38">
-        <v>-9.3906522279399995E-2</v>
+        <v>-65.289710998499999</v>
       </c>
       <c r="C38">
-        <v>50024.5976563</v>
+        <v>25048.7949219</v>
       </c>
       <c r="D38" s="1">
-        <v>9.2187632100099998E-13</v>
+        <v>2.6108210645500001E-12</v>
       </c>
       <c r="E38">
-        <v>2.5914967778500001E-3</v>
+        <v>4.3053785339000001E-3</v>
       </c>
       <c r="F38">
-        <v>-2.00203028592E-3</v>
+        <v>-2.0020026713599998E-3</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3805,19 +3933,19 @@
         <v>18.5</v>
       </c>
       <c r="B39">
-        <v>-9.3153657454999997E-2</v>
+        <v>-70.592781066900002</v>
       </c>
       <c r="C39">
-        <v>50024.5976563</v>
+        <v>25061.90625</v>
       </c>
       <c r="D39" s="1">
-        <v>4.5554325741599999E-13</v>
+        <v>3.3663015951099999E-12</v>
       </c>
       <c r="E39">
-        <v>2.1110262666799999E-3</v>
+        <v>3.8976829964699998E-3</v>
       </c>
       <c r="F39">
-        <v>-1.50115378488E-3</v>
+        <v>-1.5011260984500001E-3</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3828,19 +3956,19 @@
         <v>19</v>
       </c>
       <c r="B40">
-        <v>-9.2402928501900003E-2</v>
+        <v>-3.4233093261700001E-2</v>
       </c>
       <c r="C40">
-        <v>50024.5976563</v>
+        <v>25013.7949219</v>
       </c>
       <c r="D40" s="1">
-        <v>9.2660129194400002E-13</v>
+        <v>1.51331161144E-12</v>
       </c>
       <c r="E40">
-        <v>1.63079615315E-3</v>
+        <v>3.4897548612200001E-3</v>
       </c>
       <c r="F40">
-        <v>-1.0005279451300001E-3</v>
+        <v>-1.0005004005499999E-3</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3851,19 +3979,19 @@
         <v>19.5</v>
       </c>
       <c r="B41">
-        <v>-9.16543353054E-2</v>
+        <v>-35.089834585799998</v>
       </c>
       <c r="C41">
-        <v>50024.5976563</v>
+        <v>25037.8867188</v>
       </c>
       <c r="D41" s="1">
-        <v>3.7950080531100002E-15</v>
+        <v>1.7005277394600001E-14</v>
       </c>
       <c r="E41">
-        <v>1.1508063035400001E-3</v>
+        <v>3.0819852836400001E-3</v>
       </c>
       <c r="F41">
-        <v>-5.0015265294900001E-4</v>
+        <v>-5.0012505380400002E-4</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3874,16 +4002,16 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>7.8203201293900002E-2</v>
+        <v>-47.030811309800001</v>
       </c>
       <c r="C42">
-        <v>50024.5976563</v>
+        <v>25046.078125</v>
       </c>
       <c r="D42" s="1">
-        <v>2.8612177388200002E-19</v>
+        <v>1.91151619273E-16</v>
       </c>
       <c r="E42">
-        <v>6.7103008041199995E-4</v>
+        <v>2.6744254864800002E-3</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -3903,14 +4031,14 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G42"/>
+      <selection activeCell="F22" sqref="F22:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3932,8 +4060,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3955,8 +4083,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.5</v>
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
         <v>-1187971.76291</v>
@@ -3971,15 +4099,15 @@
         <v>1.88753071433E-4</v>
       </c>
       <c r="F3">
-        <v>-4.8317161674500003E-4</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
       <c r="G3" s="1">
         <v>-2.8557520494199999E-6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
         <v>-1215348.8007100001</v>
@@ -3994,15 +4122,15 @@
         <v>6.1456344862500004E-4</v>
       </c>
       <c r="F4">
-        <v>-9.6006056736800001E-4</v>
+        <v>-1E-3</v>
       </c>
       <c r="G4" s="1">
         <v>-4.6372139751700002E-6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.5</v>
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
       <c r="B5">
         <v>-1586578.7977400001</v>
@@ -4017,15 +4145,15 @@
         <v>1.2058049017999999E-3</v>
       </c>
       <c r="F5">
-        <v>-1.4410652140199999E-3</v>
+        <v>-1.5E-3</v>
       </c>
       <c r="G5" s="1">
         <v>-1.03421786039E-4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
+      <c r="A6" t="s">
+        <v>12</v>
       </c>
       <c r="B6">
         <v>-1548787.79158</v>
@@ -4040,15 +4168,15 @@
         <v>2.0582875413300001E-3</v>
       </c>
       <c r="F6">
-        <v>-1.9363488449100001E-3</v>
+        <v>-2E-3</v>
       </c>
       <c r="G6" s="1">
         <v>-1.6460394565500001E-4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.5</v>
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
       <c r="B7">
         <v>-1921116.4220400001</v>
@@ -4063,15 +4191,15 @@
         <v>2.8973010481100001E-3</v>
       </c>
       <c r="F7">
-        <v>-2.3947635041300002E-3</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="G7" s="1">
         <v>-2.0130024924700001E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
+      <c r="A8" t="s">
+        <v>14</v>
       </c>
       <c r="B8">
         <v>-1813007.6292000001</v>
@@ -4086,15 +4214,15 @@
         <v>4.1596715546300001E-3</v>
       </c>
       <c r="F8">
-        <v>-2.8239030802499998E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="G8" s="1">
         <v>-8.5722973190599996E-5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3.5</v>
+      <c r="A9" t="s">
+        <v>15</v>
       </c>
       <c r="B9">
         <v>-1696006.2466500001</v>
@@ -4109,15 +4237,15 @@
         <v>5.3573426823899997E-3</v>
       </c>
       <c r="F9">
-        <v>-3.2790303839800002E-3</v>
+        <v>-3.5000000000000001E-3</v>
       </c>
       <c r="G9">
         <v>-1.3991390531400001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
+      <c r="A10" t="s">
+        <v>16</v>
       </c>
       <c r="B10">
         <v>-1637993.97019</v>
@@ -4132,15 +4260,15 @@
         <v>6.6661236903999997E-3</v>
       </c>
       <c r="F10">
-        <v>-3.70697998086E-3</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="G10">
         <v>-1.15396361135E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4.5</v>
+      <c r="A11" t="s">
+        <v>17</v>
       </c>
       <c r="B11">
         <v>-1747241.8382300001</v>
@@ -4155,15 +4283,15 @@
         <v>8.2667041687999997E-3</v>
       </c>
       <c r="F11">
-        <v>-4.1618433824200003E-3</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="G11">
         <v>1.11495964249E-4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
+      <c r="A12" t="s">
+        <v>18</v>
       </c>
       <c r="B12">
         <v>-1583745.9993400001</v>
@@ -4178,15 +4306,15 @@
         <v>9.9771771606399998E-3</v>
       </c>
       <c r="F12">
-        <v>-4.5939537269499998E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G12">
         <v>3.6438925056699999E-4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5.5</v>
+      <c r="A13" t="s">
+        <v>19</v>
       </c>
       <c r="B13">
         <v>-1644933.6756800001</v>
@@ -4201,15 +4329,15 @@
         <v>1.16363101798E-2</v>
       </c>
       <c r="F13">
-        <v>-5.0531658318700001E-3</v>
+        <v>-5.4999999999999997E-3</v>
       </c>
       <c r="G13">
         <v>4.6021411823700002E-4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>20</v>
       </c>
       <c r="B14">
         <v>-1467454.1537599999</v>
@@ -4224,15 +4352,15 @@
         <v>1.33635674131E-2</v>
       </c>
       <c r="F14">
-        <v>-5.4979879169200002E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="G14">
         <v>5.3071627481500005E-4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6.5</v>
+      <c r="A15" t="s">
+        <v>21</v>
       </c>
       <c r="B15">
         <v>-1451400.06758</v>
@@ -4247,15 +4375,15 @@
         <v>1.4894619405699999E-2</v>
       </c>
       <c r="F15">
-        <v>-5.9608697459600001E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
       <c r="G15">
         <v>5.6821893692200005E-4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>7</v>
+      <c r="A16" t="s">
+        <v>22</v>
       </c>
       <c r="B16">
         <v>-1684767.19169</v>
@@ -4270,15 +4398,15 @@
         <v>1.6485253489500001E-2</v>
       </c>
       <c r="F16">
-        <v>-6.3551872782600001E-3</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="G16">
         <v>7.78930471296E-4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7.5</v>
+      <c r="A17" t="s">
+        <v>23</v>
       </c>
       <c r="B17">
         <v>-1573240.4292599999</v>
@@ -4293,15 +4421,15 @@
         <v>1.82583993152E-2</v>
       </c>
       <c r="F17">
-        <v>-6.8352166849500002E-3</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="G17">
         <v>9.860726892849999E-4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8</v>
+      <c r="A18" t="s">
+        <v>24</v>
       </c>
       <c r="B18">
         <v>-1672171.1132499999</v>
@@ -4316,15 +4444,15 @@
         <v>2.0056214622099999E-2</v>
       </c>
       <c r="F18">
-        <v>-7.3125458442E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="G18">
         <v>1.02676552282E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8.5</v>
+      <c r="A19" t="s">
+        <v>25</v>
       </c>
       <c r="B19">
         <v>-1559805.2316300001</v>
@@ -4339,15 +4467,15 @@
         <v>2.1835970833099998E-2</v>
       </c>
       <c r="F19">
-        <v>-7.7743942798600002E-3</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="G19">
         <v>1.1322689692899999E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>9</v>
+      <c r="A20" t="s">
+        <v>26</v>
       </c>
       <c r="B20">
         <v>-1563276.1557799999</v>
@@ -4362,15 +4490,15 @@
         <v>2.3795598379599998E-2</v>
       </c>
       <c r="F20">
-        <v>-8.2970584511899998E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="G20">
         <v>1.2139999579199999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>9.5</v>
+      <c r="A21" t="s">
+        <v>27</v>
       </c>
       <c r="B21">
         <v>-1565981.83871</v>
@@ -4385,15 +4513,15 @@
         <v>2.57695682626E-2</v>
       </c>
       <c r="F21">
-        <v>-8.7049766259800002E-3</v>
+        <v>-9.4999999999999998E-3</v>
       </c>
       <c r="G21">
         <v>1.30537253157E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10</v>
+      <c r="A22" t="s">
+        <v>28</v>
       </c>
       <c r="B22">
         <v>-1320826.1791399999</v>
@@ -4408,15 +4536,15 @@
         <v>2.7742428790900001E-2</v>
       </c>
       <c r="F22">
-        <v>-9.0623980201400001E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="G22">
         <v>1.3269805834500001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>10.5</v>
+      <c r="A23" t="s">
+        <v>29</v>
       </c>
       <c r="B23">
         <v>-777512.99194900005</v>
@@ -4431,15 +4559,15 @@
         <v>2.90662747308E-2</v>
       </c>
       <c r="F23">
-        <v>-8.7782598373300005E-3</v>
+        <v>-9.4999999999999998E-3</v>
       </c>
       <c r="G23">
         <v>1.2255699044799999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>11</v>
+      <c r="A24" t="s">
+        <v>30</v>
       </c>
       <c r="B24">
         <v>-449519.87473099999</v>
@@ -4454,15 +4582,15 @@
         <v>2.97200123436E-2</v>
       </c>
       <c r="F24">
-        <v>-8.3470913429099999E-3</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="G24">
         <v>1.1704683439600001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>11.5</v>
+      <c r="A25" t="s">
+        <v>31</v>
       </c>
       <c r="B25">
         <v>-279890.88742699998</v>
@@ -4477,15 +4605,15 @@
         <v>3.0143668746599999E-2</v>
       </c>
       <c r="F25">
-        <v>-7.8800448884699999E-3</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="G25">
         <v>1.1896260200300001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>12</v>
+      <c r="A26" t="s">
+        <v>32</v>
       </c>
       <c r="B26">
         <v>-111019.82455799999</v>
@@ -4500,15 +4628,15 @@
         <v>3.0357709739E-2</v>
       </c>
       <c r="F26">
-        <v>-7.4088407322199998E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="G26">
         <v>1.26497789251E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>12.5</v>
+      <c r="A27" t="s">
+        <v>33</v>
       </c>
       <c r="B27">
         <v>-51175.152969199997</v>
@@ -4523,15 +4651,15 @@
         <v>3.0393856269799999E-2</v>
       </c>
       <c r="F27">
-        <v>-6.9822801737500001E-3</v>
+        <v>-7.4999999999999997E-3</v>
       </c>
       <c r="G27">
         <v>1.0480232590599999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>13</v>
+      <c r="A28" t="s">
+        <v>34</v>
       </c>
       <c r="B28">
         <v>58211.464456299997</v>
@@ -4546,15 +4674,15 @@
         <v>3.0332176722899999E-2</v>
       </c>
       <c r="F28">
-        <v>-6.5061312799700004E-3</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="G28">
         <v>1.09315385795E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>13.5</v>
+      <c r="A29" t="s">
+        <v>35</v>
       </c>
       <c r="B29">
         <v>106304.20067000001</v>
@@ -4569,15 +4697,15 @@
         <v>3.0372111121500001E-2</v>
       </c>
       <c r="F29">
-        <v>-5.9658737553899997E-3</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
       <c r="G29">
         <v>1.11545275224E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>14</v>
+      <c r="A30" t="s">
+        <v>36</v>
       </c>
       <c r="B30">
         <v>137874.10624699999</v>
@@ -4592,15 +4720,15 @@
         <v>3.0504696357799999E-2</v>
       </c>
       <c r="F30">
-        <v>-5.4978115546500004E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="G30">
         <v>1.1327585135000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>14.5</v>
+      <c r="A31" t="s">
+        <v>37</v>
       </c>
       <c r="B31">
         <v>158195.640805</v>
@@ -4615,15 +4743,15 @@
         <v>3.0622658394E-2</v>
       </c>
       <c r="F31">
-        <v>-5.0193084837199999E-3</v>
+        <v>-5.4999999999999997E-3</v>
       </c>
       <c r="G31">
         <v>1.15944697122E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>15</v>
+      <c r="A32" t="s">
+        <v>38</v>
       </c>
       <c r="B32">
         <v>183637.59328</v>
@@ -4638,15 +4766,15 @@
         <v>3.0743988351699999E-2</v>
       </c>
       <c r="F32">
-        <v>-4.6060951242100001E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G32">
         <v>1.18019596414E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>15.5</v>
+      <c r="A33" t="s">
+        <v>39</v>
       </c>
       <c r="B33">
         <v>203846.306354</v>
@@ -4661,15 +4789,15 @@
         <v>3.0876369086799998E-2</v>
       </c>
       <c r="F33">
-        <v>-4.1941270396300004E-3</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="G33">
         <v>1.17005555331E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>16</v>
+      <c r="A34" t="s">
+        <v>40</v>
       </c>
       <c r="B34">
         <v>170702.22511699999</v>
@@ -4684,15 +4812,15 @@
         <v>3.0976178104699999E-2</v>
       </c>
       <c r="F34">
-        <v>-3.77323876709E-3</v>
+        <v>-3.9999999999999897E-3</v>
       </c>
       <c r="G34">
         <v>1.1444849779300001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>16.5</v>
+      <c r="A35" t="s">
+        <v>41</v>
       </c>
       <c r="B35">
         <v>166815.362215</v>
@@ -4707,15 +4835,15 @@
         <v>3.1026052592299999E-2</v>
       </c>
       <c r="F35">
-        <v>-3.4054820224100001E-3</v>
+        <v>-3.4999999999999901E-3</v>
       </c>
       <c r="G35">
         <v>1.12435464665E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>17</v>
+      <c r="A36" t="s">
+        <v>42</v>
       </c>
       <c r="B36">
         <v>148162.49034600001</v>
@@ -4730,15 +4858,15 @@
         <v>3.12061670689E-2</v>
       </c>
       <c r="F36">
-        <v>-3.02730137513E-3</v>
+        <v>-2.9999999999999901E-3</v>
       </c>
       <c r="G36">
         <v>1.09287952022E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>17.5</v>
+      <c r="A37" t="s">
+        <v>43</v>
       </c>
       <c r="B37">
         <v>136309.578825</v>
@@ -4753,15 +4881,15 @@
         <v>3.1302860157500001E-2</v>
       </c>
       <c r="F37">
-        <v>-2.6006637360200002E-3</v>
+        <v>-2.4999999999999901E-3</v>
       </c>
       <c r="G37">
         <v>1.00778313676E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>18</v>
+      <c r="A38" t="s">
+        <v>44</v>
       </c>
       <c r="B38">
         <v>95447.593152400004</v>
@@ -4776,15 +4904,15 @@
         <v>3.1410613535399999E-2</v>
       </c>
       <c r="F38">
-        <v>-2.0993748831299999E-3</v>
+        <v>-1.9999999999999901E-3</v>
       </c>
       <c r="G38">
         <v>9.48067835434E-4</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>18.5</v>
+      <c r="A39" t="s">
+        <v>45</v>
       </c>
       <c r="B39">
         <v>75985.883181600002</v>
@@ -4799,15 +4927,15 @@
         <v>3.1511472038100001E-2</v>
       </c>
       <c r="F39">
-        <v>-1.6144628390300001E-3</v>
+        <v>-1.4999999999999901E-3</v>
       </c>
       <c r="G39">
         <v>9.1848685965200002E-4</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>19</v>
+      <c r="A40" t="s">
+        <v>46</v>
       </c>
       <c r="B40">
         <v>50399.452507800001</v>
@@ -4822,15 +4950,15 @@
         <v>3.1689278542200001E-2</v>
       </c>
       <c r="F40">
-        <v>-1.1296867310600001E-3</v>
+        <v>-9.9999999999999005E-4</v>
       </c>
       <c r="G40">
         <v>9.0477495502800005E-4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>19.5</v>
+      <c r="A41" t="s">
+        <v>47</v>
       </c>
       <c r="B41">
         <v>34158.441244599999</v>
@@ -4845,15 +4973,15 @@
         <v>3.1841030757400003E-2</v>
       </c>
       <c r="F41">
-        <v>-6.2996895868999995E-4</v>
+        <v>-4.9999999999999004E-4</v>
       </c>
       <c r="G41">
         <v>9.0190610128100003E-4</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>20</v>
+      <c r="A42" t="s">
+        <v>48</v>
       </c>
       <c r="B42">
         <v>24576.8523288</v>
@@ -4868,7 +4996,7 @@
         <v>3.1938225621200002E-2</v>
       </c>
       <c r="F42">
-        <v>-1.45501485962E-4</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>8.7903623672299996E-4</v>
